--- a/data/trans_orig/P6517-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B851F14-A3E9-4EAF-BE49-838746AAA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA9EF1E-41BD-43A3-9B29-503689929C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39505251-28D8-4BFD-B255-8A67FBC483C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8071135-9AE2-4B43-A670-753FF36800F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>53,45%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>50,9%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,56%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,61 +197,61 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,17%</t>
+    <t>17,14%</t>
   </si>
   <si>
     <t>24,08%</t>
@@ -260,502 +260,496 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>7,37%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>30,54%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,66%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>14,68%</t>
@@ -764,40 +758,40 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,84%</t>
@@ -1215,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F0EA5-D7BD-4061-AE88-4BB4DF20F165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30362819-38BC-4BBB-9AC2-4B89AFA756DF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2215,10 +2209,10 @@
         <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2227,13 +2221,13 @@
         <v>21720</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -2242,13 +2236,13 @@
         <v>121666</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2257,13 @@
         <v>39599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2278,13 +2272,13 @@
         <v>9459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -2293,13 +2287,13 @@
         <v>49058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2349,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2361,13 @@
         <v>65488</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2382,13 +2376,13 @@
         <v>27636</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -2397,13 +2391,13 @@
         <v>93124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2412,13 @@
         <v>50098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2433,13 +2427,13 @@
         <v>24590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2448,13 +2442,13 @@
         <v>74687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2463,13 @@
         <v>29753</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2484,13 +2478,13 @@
         <v>9062</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -2499,13 +2493,13 @@
         <v>38814</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2514,13 @@
         <v>18029</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2535,13 +2529,13 @@
         <v>2997</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -2550,13 +2544,13 @@
         <v>21026</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2606,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2618,13 @@
         <v>1652</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2639,13 +2633,13 @@
         <v>2724</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2654,13 +2648,13 @@
         <v>4376</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2669,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2690,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2705,13 +2699,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2720,13 @@
         <v>2567</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2741,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2756,13 +2750,13 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2792,13 +2786,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2807,13 +2801,13 @@
         <v>897</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2875,13 @@
         <v>765745</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>459</v>
@@ -2896,13 +2890,13 @@
         <v>483722</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M34" s="7">
         <v>1191</v>
@@ -2911,13 +2905,13 @@
         <v>1249467</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2926,13 @@
         <v>538543</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>305</v>
@@ -2947,13 +2941,13 @@
         <v>320448</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>815</v>
@@ -2962,13 +2956,13 @@
         <v>858991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2977,13 @@
         <v>411823</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -2998,13 +2992,13 @@
         <v>150240</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>547</v>
@@ -3013,13 +3007,13 @@
         <v>562064</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3028,13 @@
         <v>185777</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3049,13 +3043,13 @@
         <v>68735</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>246</v>
@@ -3064,13 +3058,13 @@
         <v>254512</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3120,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA9EF1E-41BD-43A3-9B29-503689929C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49CF48E-A103-4B52-9378-56665D4E9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8071135-9AE2-4B43-A670-753FF36800F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73B69E16-0E4E-4321-B263-D0F80F0D7360}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="259">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>53,45%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>50,9%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,502 +107,511 @@
     <t>17,92%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -611,16 +620,16 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -632,13 +641,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,19%</t>
+    <t>80,1%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>22,83%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -647,10 +656,10 @@
     <t>50,54%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>16,25%</t>
@@ -668,19 +677,19 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>47,6%</t>
+    <t>43,79%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>88,51%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>68,05%</t>
+    <t>66,65%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -689,112 +698,118 @@
     <t>24,76%</t>
   </si>
   <si>
-    <t>77,17%</t>
+    <t>77,87%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>46,07%</t>
+    <t>45,0%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>26,21%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1209,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30362819-38BC-4BBB-9AC2-4B89AFA756DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04A3116-5CAC-45D8-8CB6-5DC7C7312177}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2015,13 +2030,13 @@
         <v>22870</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2030,13 +2045,13 @@
         <v>85467</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2107,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2119,13 @@
         <v>174976</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -2119,13 +2134,13 @@
         <v>79705</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2134,13 +2149,13 @@
         <v>254681</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2170,13 @@
         <v>122738</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2170,13 +2185,13 @@
         <v>58849</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -2185,13 +2200,13 @@
         <v>181588</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2221,13 @@
         <v>99947</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2221,13 +2236,13 @@
         <v>21720</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -2236,13 +2251,13 @@
         <v>121666</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2272,13 @@
         <v>39599</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2272,13 +2287,13 @@
         <v>9459</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -2287,13 +2302,13 @@
         <v>49058</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2364,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2376,13 @@
         <v>65488</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2376,13 +2391,13 @@
         <v>27636</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -2391,13 +2406,13 @@
         <v>93124</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2427,13 @@
         <v>50098</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2427,13 +2442,13 @@
         <v>24590</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2442,13 +2457,13 @@
         <v>74687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2478,13 @@
         <v>29753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2478,13 +2493,13 @@
         <v>9062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -2493,13 +2508,13 @@
         <v>38814</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2529,13 @@
         <v>18029</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2529,13 +2544,13 @@
         <v>2997</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -2544,13 +2559,13 @@
         <v>21026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2621,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2633,13 @@
         <v>1652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2633,13 +2648,13 @@
         <v>2724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2648,13 +2663,13 @@
         <v>4376</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2684,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2684,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2699,13 +2714,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2735,13 @@
         <v>2567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2735,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2750,13 +2765,13 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2786,13 +2801,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2801,13 +2816,13 @@
         <v>897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2890,13 @@
         <v>765745</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>459</v>
@@ -2890,13 +2905,13 @@
         <v>483722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>1191</v>
@@ -2905,13 +2920,13 @@
         <v>1249467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2941,13 @@
         <v>538543</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>305</v>
@@ -2941,13 +2956,13 @@
         <v>320448</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>815</v>
@@ -2956,13 +2971,13 @@
         <v>858991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2992,13 @@
         <v>411823</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -2992,13 +3007,13 @@
         <v>150240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>547</v>
@@ -3007,13 +3022,13 @@
         <v>562064</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3043,13 @@
         <v>185777</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3043,13 +3058,13 @@
         <v>68735</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>246</v>
@@ -3058,13 +3073,13 @@
         <v>254512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3135,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49CF48E-A103-4B52-9378-56665D4E9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555D5122-103D-48DF-9474-11D167A65C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73B69E16-0E4E-4321-B263-D0F80F0D7360}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA8434E0-8624-49F5-A434-21A3C7140A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>53,45%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>50,9%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,56%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,217 +197,220 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -416,109 +419,106 @@
     <t>40,02%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -527,109 +527,103 @@
     <t>40,09%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>38,25%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -641,13 +635,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>80,14%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -656,16 +650,16 @@
     <t>50,54%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>67,89%</t>
   </si>
   <si>
     <t>0%</t>
@@ -677,19 +671,19 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>43,79%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>87,52%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>66,65%</t>
+    <t>71,31%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -698,118 +692,115 @@
     <t>24,76%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>45,0%</t>
+    <t>45,57%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>44,21%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,21%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>19,66%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1224,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04A3116-5CAC-45D8-8CB6-5DC7C7312177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610BE7B5-A4E8-423C-B11E-264748025279}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2030,13 +2021,13 @@
         <v>22870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2045,13 +2036,13 @@
         <v>85467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,7 +2098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,13 +2110,13 @@
         <v>174976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -2134,13 +2125,13 @@
         <v>79705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2149,13 +2140,13 @@
         <v>254681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2161,13 @@
         <v>122738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2185,13 +2176,13 @@
         <v>58849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -2200,13 +2191,13 @@
         <v>181588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,10 +2212,10 @@
         <v>99947</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>145</v>
@@ -2544,13 +2535,13 @@
         <v>2997</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -2559,13 +2550,13 @@
         <v>21026</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2612,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2624,13 @@
         <v>1652</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2648,13 +2639,13 @@
         <v>2724</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2663,13 +2654,13 @@
         <v>4376</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2675,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2699,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2714,13 +2705,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2726,13 @@
         <v>2567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2750,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2765,13 +2756,13 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2801,13 +2792,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2816,13 +2807,13 @@
         <v>897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2881,13 @@
         <v>765745</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>459</v>
@@ -2905,13 +2896,13 @@
         <v>483722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="M34" s="7">
         <v>1191</v>
@@ -2920,13 +2911,13 @@
         <v>1249467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2932,13 @@
         <v>538543</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>305</v>
@@ -2956,13 +2947,13 @@
         <v>320448</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>815</v>
@@ -2971,13 +2962,13 @@
         <v>858991</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2983,13 @@
         <v>411823</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -3007,13 +2998,13 @@
         <v>150240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>547</v>
@@ -3022,13 +3013,13 @@
         <v>562064</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3034,13 @@
         <v>185777</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3058,13 +3049,13 @@
         <v>68735</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>246</v>
@@ -3073,13 +3064,13 @@
         <v>254512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3126,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555D5122-103D-48DF-9474-11D167A65C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1C1265-448F-4130-8C24-AFAFAAEF2BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA8434E0-8624-49F5-A434-21A3C7140A5D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F79579BF-CA4D-4758-92B4-71A0B4724885}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="255">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>39,22%</t>
@@ -302,7 +302,7 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>37,48%</t>
@@ -413,7 +413,7 @@
     <t>12,17%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>40,02%</t>
@@ -521,7 +521,7 @@
     <t>10,64%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>40,09%</t>
@@ -626,16 +626,16 @@
     <t>13,51%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>75,24%</t>
@@ -647,46 +647,28 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -695,10 +677,25 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>40,26%</t>
@@ -1215,8 +1212,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610BE7B5-A4E8-423C-B11E-264748025279}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C63E059-0558-43E6-A7D5-68DEE6EAABD7}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2618,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>197</v>
@@ -2648,10 +2645,10 @@
         <v>202</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>4376</v>
+        <v>2724</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>203</v>
@@ -2669,19 +2666,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2690,28 +2687,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,16 +2720,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2741,28 +2738,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2792,28 +2789,28 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2852,10 +2849,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2869,55 +2866,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>732</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>765745</v>
+        <v>1652</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
-        <v>459</v>
-      </c>
-      <c r="I34" s="7">
-        <v>483722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>1191</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1249467</v>
+        <v>1652</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,49 +2921,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>538543</v>
+        <v>819</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
-        <v>305</v>
-      </c>
-      <c r="I35" s="7">
-        <v>320448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>815</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>858991</v>
+        <v>819</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2970,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>411823</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
-        <v>148</v>
-      </c>
-      <c r="I36" s="7">
-        <v>150240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>562064</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,49 +3019,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>185777</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
-        <v>67</v>
-      </c>
-      <c r="I37" s="7">
-        <v>68735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>254512</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,63 +3068,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>732</v>
+      </c>
+      <c r="D39" s="7">
+        <v>765745</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="7">
+        <v>459</v>
+      </c>
+      <c r="I39" s="7">
+        <v>483722</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1191</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1249467</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>510</v>
+      </c>
+      <c r="D40" s="7">
+        <v>538543</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="7">
+        <v>305</v>
+      </c>
+      <c r="I40" s="7">
+        <v>320448</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="7">
+        <v>815</v>
+      </c>
+      <c r="N40" s="7">
+        <v>858991</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>399</v>
+      </c>
+      <c r="D41" s="7">
+        <v>411823</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="7">
+        <v>148</v>
+      </c>
+      <c r="I41" s="7">
+        <v>150240</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M41" s="7">
+        <v>547</v>
+      </c>
+      <c r="N41" s="7">
+        <v>562064</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>179</v>
+      </c>
+      <c r="D42" s="7">
+        <v>185777</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="7">
+        <v>67</v>
+      </c>
+      <c r="I42" s="7">
+        <v>68735</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="7">
+        <v>246</v>
+      </c>
+      <c r="N42" s="7">
+        <v>254512</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1820</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1901888</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1023145</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2799</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2925033</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>255</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
